--- a/sources/Belarusian_data.xlsx
+++ b/sources/Belarusian_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Belarusian" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Belarusian!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Belarusian!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="728">
   <si>
     <t>language_no</t>
   </si>
@@ -2197,6 +2197,15 @@
   </si>
   <si>
     <t>саромеецца</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>ACC</t>
   </si>
 </sst>
 </file>
@@ -2571,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2598,9 +2607,11 @@
     <col min="17" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2658,8 +2669,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>65</v>
       </c>
@@ -2696,17 +2713,19 @@
       <c r="L2" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>540</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S2" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>65</v>
       </c>
@@ -2743,17 +2762,19 @@
       <c r="L3" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>544</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S3" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>65</v>
       </c>
@@ -2790,17 +2811,19 @@
       <c r="L4" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S4" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>65</v>
       </c>
@@ -2826,9 +2849,11 @@
         <v>549</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>550</v>
       </c>
@@ -2842,8 +2867,10 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>65</v>
       </c>
@@ -2880,17 +2907,19 @@
       <c r="L6" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>554</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S6" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>65</v>
       </c>
@@ -2927,17 +2956,19 @@
       <c r="L7" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>556</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>65</v>
       </c>
@@ -2981,8 +3012,10 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>65</v>
       </c>
@@ -3008,9 +3041,11 @@
         <v>559</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>550</v>
       </c>
@@ -3024,8 +3059,10 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>65</v>
       </c>
@@ -3051,9 +3088,11 @@
         <v>560</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>550</v>
       </c>
@@ -3067,8 +3106,10 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>65</v>
       </c>
@@ -3112,8 +3153,10 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T11" s="7"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>65</v>
       </c>
@@ -3139,9 +3182,11 @@
         <v>562</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K12" s="5" t="s">
         <v>550</v>
       </c>
@@ -3155,8 +3200,10 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T12" s="7"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>65</v>
       </c>
@@ -3200,8 +3247,10 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T13" s="7"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>65</v>
       </c>
@@ -3244,9 +3293,11 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S14" s="5"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>65</v>
       </c>
@@ -3289,9 +3340,11 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S15" s="5"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>65</v>
       </c>
@@ -3317,9 +3370,11 @@
         <v>572</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>550</v>
       </c>
@@ -3332,9 +3387,11 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>65</v>
       </c>
@@ -3360,9 +3417,11 @@
         <v>573</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>550</v>
       </c>
@@ -3376,8 +3435,10 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>65</v>
       </c>
@@ -3421,8 +3482,10 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>65</v>
       </c>
@@ -3448,9 +3511,11 @@
         <v>575</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>550</v>
       </c>
@@ -3464,8 +3529,10 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T19" s="7"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>65</v>
       </c>
@@ -3491,9 +3558,11 @@
         <v>576</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>550</v>
       </c>
@@ -3506,9 +3575,11 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>65</v>
       </c>
@@ -3534,9 +3605,11 @@
         <v>577</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>550</v>
       </c>
@@ -3550,8 +3623,10 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T21" s="7"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>65</v>
       </c>
@@ -3594,9 +3669,11 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S22" s="5"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>65</v>
       </c>
@@ -3633,17 +3710,19 @@
       <c r="L23" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S23" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>65</v>
       </c>
@@ -3680,17 +3759,19 @@
       <c r="L24" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>65</v>
       </c>
@@ -3734,8 +3815,10 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T25" s="7"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>65</v>
       </c>
@@ -3779,8 +3862,10 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>65</v>
       </c>
@@ -3806,9 +3891,11 @@
         <v>589</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>550</v>
       </c>
@@ -3822,8 +3909,10 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T27" s="7"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>65</v>
       </c>
@@ -3849,9 +3938,11 @@
         <v>590</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>550</v>
       </c>
@@ -3865,8 +3956,10 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T28" s="7"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>65</v>
       </c>
@@ -3892,26 +3985,30 @@
         <v>591</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K29" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S29" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>65</v>
       </c>
@@ -3948,17 +4045,19 @@
       <c r="L30" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>65</v>
       </c>
@@ -4002,8 +4101,10 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T31" s="7"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>65</v>
       </c>
@@ -4029,9 +4130,11 @@
         <v>598</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>550</v>
       </c>
@@ -4045,8 +4148,10 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T32" s="7"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>65</v>
       </c>
@@ -4083,17 +4188,19 @@
       <c r="L33" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S33" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>65</v>
       </c>
@@ -4119,9 +4226,11 @@
         <v>600</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>550</v>
       </c>
@@ -4135,8 +4244,10 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T34" s="7"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>65</v>
       </c>
@@ -4180,8 +4291,10 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T35" s="7"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>65</v>
       </c>
@@ -4218,17 +4331,19 @@
       <c r="L36" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S36" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>65</v>
       </c>
@@ -4254,9 +4369,11 @@
         <v>606</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>550</v>
       </c>
@@ -4270,8 +4387,10 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T37" s="7"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>65</v>
       </c>
@@ -4308,17 +4427,19 @@
       <c r="L38" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S38" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>65</v>
       </c>
@@ -4355,17 +4476,19 @@
       <c r="L39" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S39" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>65</v>
       </c>
@@ -4391,9 +4514,11 @@
         <v>611</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>550</v>
       </c>
@@ -4407,8 +4532,10 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T40" s="7"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>65</v>
       </c>
@@ -4434,9 +4561,11 @@
         <v>612</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>550</v>
       </c>
@@ -4450,8 +4579,10 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T41" s="7"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>65</v>
       </c>
@@ -4477,9 +4608,11 @@
         <v>613</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>550</v>
       </c>
@@ -4493,8 +4626,10 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T42" s="7"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>65</v>
       </c>
@@ -4520,9 +4655,11 @@
         <v>614</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>550</v>
       </c>
@@ -4536,8 +4673,10 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T43" s="7"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>65</v>
       </c>
@@ -4563,9 +4702,11 @@
         <v>615</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>550</v>
       </c>
@@ -4579,8 +4720,10 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T44" s="7"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>65</v>
       </c>
@@ -4606,9 +4749,11 @@
         <v>616</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>550</v>
       </c>
@@ -4622,8 +4767,10 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T45" s="7"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>65</v>
       </c>
@@ -4667,8 +4814,10 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T46" s="7"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>65</v>
       </c>
@@ -4694,26 +4843,30 @@
         <v>620</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>621</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S47" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>65</v>
       </c>
@@ -4757,8 +4910,10 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T48" s="7"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>65</v>
       </c>
@@ -4802,8 +4957,10 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T49" s="7"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>65</v>
       </c>
@@ -4829,9 +4986,11 @@
         <v>626</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>550</v>
       </c>
@@ -4845,8 +5004,10 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T50" s="7"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>65</v>
       </c>
@@ -4872,9 +5033,11 @@
         <v>627</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>550</v>
       </c>
@@ -4888,8 +5051,10 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T51" s="7"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>65</v>
       </c>
@@ -4926,17 +5091,19 @@
       <c r="L52" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>629</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S52" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>65</v>
       </c>
@@ -4962,9 +5129,11 @@
         <v>630</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>550</v>
       </c>
@@ -4978,8 +5147,10 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T53" s="7"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>65</v>
       </c>
@@ -5023,8 +5194,10 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T54" s="7"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>65</v>
       </c>
@@ -5061,17 +5234,19 @@
       <c r="L55" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S55" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>65</v>
       </c>
@@ -5097,9 +5272,11 @@
         <v>633</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>550</v>
       </c>
@@ -5113,8 +5290,10 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T56" s="7"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>65</v>
       </c>
@@ -5151,17 +5330,19 @@
       <c r="L57" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>635</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S57" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>65</v>
       </c>
@@ -5187,9 +5368,11 @@
         <v>636</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>550</v>
       </c>
@@ -5203,8 +5386,10 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T58" s="7"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>65</v>
       </c>
@@ -5241,17 +5426,19 @@
       <c r="L59" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S59" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>65</v>
       </c>
@@ -5288,17 +5475,19 @@
       <c r="L60" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>639</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S60" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>65</v>
       </c>
@@ -5324,9 +5513,11 @@
         <v>640</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>550</v>
       </c>
@@ -5340,8 +5531,10 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T61" s="7"/>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>65</v>
       </c>
@@ -5378,17 +5571,19 @@
       <c r="L62" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S62" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T62" s="7"/>
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>65</v>
       </c>
@@ -5432,8 +5627,10 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T63" s="7"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>65</v>
       </c>
@@ -5459,9 +5656,11 @@
         <v>643</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>550</v>
       </c>
@@ -5475,8 +5674,10 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T64" s="7"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -5513,17 +5714,19 @@
       <c r="L65" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S65" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5567,8 +5770,10 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T66" s="7"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -5594,9 +5799,11 @@
         <v>646</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>550</v>
       </c>
@@ -5610,8 +5817,10 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T67" s="7"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -5655,8 +5864,10 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T68" s="7"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -5682,26 +5893,30 @@
         <v>648</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K69" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M69" s="5" t="s">
-        <v>649</v>
-      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S69" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="T69" s="7"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -5727,9 +5942,11 @@
         <v>650</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>550</v>
       </c>
@@ -5743,8 +5960,10 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T70" s="7"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>65</v>
       </c>
@@ -5770,9 +5989,11 @@
         <v>651</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>550</v>
       </c>
@@ -5786,8 +6007,10 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T71" s="7"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>65</v>
       </c>
@@ -5813,9 +6036,11 @@
         <v>652</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>550</v>
       </c>
@@ -5829,8 +6054,10 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T72" s="7"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>65</v>
       </c>
@@ -5856,9 +6083,11 @@
         <v>653</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>550</v>
       </c>
@@ -5872,8 +6101,10 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T73" s="7"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>65</v>
       </c>
@@ -5917,8 +6148,10 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T74" s="7"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>65</v>
       </c>
@@ -5944,9 +6177,11 @@
         <v>655</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>550</v>
       </c>
@@ -5960,8 +6195,10 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T75" s="7"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>65</v>
       </c>
@@ -5987,9 +6224,11 @@
         <v>656</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>550</v>
       </c>
@@ -6003,8 +6242,10 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T76" s="7"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>65</v>
       </c>
@@ -6030,9 +6271,11 @@
         <v>657</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>550</v>
       </c>
@@ -6046,8 +6289,10 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T77" s="7"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>65</v>
       </c>
@@ -6091,8 +6336,10 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T78" s="7"/>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>65</v>
       </c>
@@ -6118,9 +6365,11 @@
         <v>659</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>550</v>
       </c>
@@ -6134,8 +6383,10 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T79" s="7"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>65</v>
       </c>
@@ -6179,8 +6430,10 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T80" s="7"/>
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>65</v>
       </c>
@@ -6217,17 +6470,19 @@
       <c r="L81" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S81" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>65</v>
       </c>
@@ -6271,8 +6526,10 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T82" s="7"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>65</v>
       </c>
@@ -6316,8 +6573,10 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T83" s="7"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>65</v>
       </c>
@@ -6354,17 +6613,19 @@
       <c r="L84" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S84" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T84" s="7"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>65</v>
       </c>
@@ -6408,8 +6669,10 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T85" s="7"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>65</v>
       </c>
@@ -6435,9 +6698,11 @@
         <v>666</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>550</v>
       </c>
@@ -6451,8 +6716,10 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T86" s="7"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>65</v>
       </c>
@@ -6478,9 +6745,11 @@
         <v>667</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>550</v>
       </c>
@@ -6494,8 +6763,10 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T87" s="7"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>65</v>
       </c>
@@ -6539,8 +6810,10 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T88" s="7"/>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>65</v>
       </c>
@@ -6584,8 +6857,10 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T89" s="7"/>
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>65</v>
       </c>
@@ -6622,17 +6897,19 @@
       <c r="L90" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>675</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S90" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>65</v>
       </c>
@@ -6676,8 +6953,10 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T91" s="7"/>
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>65</v>
       </c>
@@ -6703,9 +6982,11 @@
         <v>677</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>550</v>
       </c>
@@ -6719,8 +7000,10 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T92" s="7"/>
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>65</v>
       </c>
@@ -6757,17 +7040,19 @@
       <c r="L93" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S93" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>65</v>
       </c>
@@ -6793,9 +7078,11 @@
         <v>679</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>550</v>
       </c>
@@ -6809,8 +7096,10 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T94" s="7"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>65</v>
       </c>
@@ -6847,17 +7136,19 @@
       <c r="L95" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S95" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>65</v>
       </c>
@@ -6901,8 +7192,10 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T96" s="7"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>65</v>
       </c>
@@ -6928,9 +7221,11 @@
         <v>682</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>550</v>
       </c>
@@ -6944,8 +7239,10 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T97" s="7"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>65</v>
       </c>
@@ -6982,17 +7279,19 @@
       <c r="L98" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S98" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="T98" s="7"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>65</v>
       </c>
@@ -7029,17 +7328,19 @@
       <c r="L99" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S99" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>65</v>
       </c>
@@ -7076,17 +7377,19 @@
       <c r="L100" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S100" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>65</v>
       </c>
@@ -7112,9 +7415,11 @@
         <v>687</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>550</v>
       </c>
@@ -7128,8 +7433,10 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T101" s="7"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>65</v>
       </c>
@@ -7173,8 +7480,10 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T102" s="7"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>65</v>
       </c>
@@ -7200,9 +7509,11 @@
         <v>689</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>550</v>
       </c>
@@ -7216,8 +7527,10 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T103" s="7"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>65</v>
       </c>
@@ -7243,9 +7556,11 @@
         <v>690</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>550</v>
       </c>
@@ -7259,8 +7574,10 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T104" s="7"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>65</v>
       </c>
@@ -7304,8 +7621,10 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T105" s="7"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>65</v>
       </c>
@@ -7331,9 +7650,11 @@
         <v>694</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>550</v>
       </c>
@@ -7347,8 +7668,10 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T106" s="7"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>65</v>
       </c>
@@ -7374,9 +7697,11 @@
         <v>695</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>550</v>
       </c>
@@ -7390,8 +7715,10 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T107" s="7"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>65</v>
       </c>
@@ -7417,9 +7744,11 @@
         <v>696</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>550</v>
       </c>
@@ -7433,8 +7762,10 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T108" s="7"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>65</v>
       </c>
@@ -7460,9 +7791,11 @@
         <v>697</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>550</v>
       </c>
@@ -7476,8 +7809,10 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T109" s="7"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>65</v>
       </c>
@@ -7520,9 +7855,11 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S110" s="5"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>65</v>
       </c>
@@ -7548,9 +7885,11 @@
         <v>699</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>550</v>
       </c>
@@ -7563,9 +7902,11 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S111" s="5"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>65</v>
       </c>
@@ -7608,9 +7949,11 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S112" s="5"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>65</v>
       </c>
@@ -7647,17 +7990,19 @@
       <c r="L113" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>639</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S113" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>65</v>
       </c>
@@ -7694,17 +8039,19 @@
       <c r="L114" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S114" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>65</v>
       </c>
@@ -7747,9 +8094,11 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S115" s="5"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>65</v>
       </c>
@@ -7775,9 +8124,11 @@
         <v>704</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K116" s="5" t="s">
         <v>550</v>
       </c>
@@ -7790,9 +8141,11 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S116" s="5"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>65</v>
       </c>
@@ -7835,9 +8188,11 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S117" s="5"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>65</v>
       </c>
@@ -7874,17 +8229,19 @@
       <c r="L118" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S118" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>65</v>
       </c>
@@ -7921,17 +8278,19 @@
       <c r="L119" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S119" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>65</v>
       </c>
@@ -7957,26 +8316,30 @@
         <v>708</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S120" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>65</v>
       </c>
@@ -8004,22 +8367,26 @@
       <c r="I121" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="K121" s="5" t="s">
         <v>710</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S121" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>65</v>
       </c>
@@ -8045,9 +8412,11 @@
         <v>712</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>550</v>
       </c>
@@ -8061,8 +8430,10 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T122" s="7"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>65</v>
       </c>
@@ -8106,8 +8477,10 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T123" s="7"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>65</v>
       </c>
@@ -8144,17 +8517,19 @@
       <c r="L124" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S124" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T124" s="7"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>65</v>
       </c>
@@ -8180,9 +8555,11 @@
         <v>715</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>550</v>
       </c>
@@ -8196,8 +8573,10 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T125" s="7"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>65</v>
       </c>
@@ -8234,17 +8613,19 @@
       <c r="L126" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S126" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T126" s="7"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>65</v>
       </c>
@@ -8288,8 +8669,10 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T127" s="7"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>65</v>
       </c>
@@ -8326,17 +8709,19 @@
       <c r="L128" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S128" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T128" s="7"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>65</v>
       </c>
@@ -8373,17 +8758,19 @@
       <c r="L129" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S129" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>65</v>
       </c>
@@ -8420,17 +8807,19 @@
       <c r="L130" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>723</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S130" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="T130" s="7"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>65</v>
       </c>
@@ -8467,18 +8856,20 @@
       <c r="L131" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>